--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA846A95-680F-426D-B1C6-17D89462FF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="17100" windowHeight="7650"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -12,17 +18,25 @@
     <sheet name="動的計画法DPEducation" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yamanakakohji</author>
   </authors>
   <commentList>
-    <comment ref="G27" authorId="0">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0">
+    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +72,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>yamanakakohji</author>
   </authors>
   <commentList>
-    <comment ref="G38" authorId="0">
+    <comment ref="G38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G48" authorId="0">
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H57" authorId="0">
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="0">
+    <comment ref="G71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G76" authorId="0">
+    <comment ref="G76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1139,7 +1153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1256,12 +1270,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1303,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1336,9 +1353,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1371,6 +1405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1546,11 +1597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1825,6 +1876,9 @@
       <c r="D11" s="8">
         <v>43826</v>
       </c>
+      <c r="E11" s="8">
+        <v>43835</v>
+      </c>
       <c r="G11" s="8">
         <v>43579</v>
       </c>
@@ -1851,6 +1905,9 @@
       <c r="D12" s="8">
         <v>43826</v>
       </c>
+      <c r="E12" s="8">
+        <v>43839</v>
+      </c>
       <c r="G12" s="8">
         <v>43583</v>
       </c>
@@ -2660,67 +2717,67 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1"/>
-    <hyperlink ref="N7" r:id="rId2"/>
-    <hyperlink ref="N9" r:id="rId3"/>
-    <hyperlink ref="N11" r:id="rId4"/>
-    <hyperlink ref="N12" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
-    <hyperlink ref="N10" r:id="rId7"/>
-    <hyperlink ref="N13" r:id="rId8"/>
-    <hyperlink ref="N14" r:id="rId9"/>
-    <hyperlink ref="N15" r:id="rId10"/>
-    <hyperlink ref="N16" r:id="rId11"/>
-    <hyperlink ref="N17" r:id="rId12"/>
-    <hyperlink ref="N18" r:id="rId13"/>
-    <hyperlink ref="N19" r:id="rId14"/>
-    <hyperlink ref="N20" r:id="rId15"/>
-    <hyperlink ref="N21" r:id="rId16"/>
-    <hyperlink ref="N22" r:id="rId17"/>
-    <hyperlink ref="N23" r:id="rId18"/>
-    <hyperlink ref="N24" r:id="rId19"/>
-    <hyperlink ref="N25" r:id="rId20"/>
-    <hyperlink ref="N26" r:id="rId21"/>
-    <hyperlink ref="N27" r:id="rId22"/>
-    <hyperlink ref="N28" r:id="rId23"/>
-    <hyperlink ref="N29" r:id="rId24"/>
-    <hyperlink ref="N30" r:id="rId25"/>
-    <hyperlink ref="N31" r:id="rId26"/>
-    <hyperlink ref="N32" r:id="rId27"/>
-    <hyperlink ref="N33" r:id="rId28"/>
-    <hyperlink ref="N34" r:id="rId29"/>
-    <hyperlink ref="N35" r:id="rId30"/>
-    <hyperlink ref="N36" r:id="rId31"/>
-    <hyperlink ref="N37" r:id="rId32"/>
-    <hyperlink ref="N38" r:id="rId33"/>
-    <hyperlink ref="N39" r:id="rId34"/>
-    <hyperlink ref="N40" r:id="rId35"/>
-    <hyperlink ref="N41" r:id="rId36"/>
-    <hyperlink ref="N42" r:id="rId37"/>
-    <hyperlink ref="N43" r:id="rId38"/>
-    <hyperlink ref="N44" r:id="rId39"/>
-    <hyperlink ref="N45" r:id="rId40"/>
-    <hyperlink ref="N46" r:id="rId41"/>
-    <hyperlink ref="N47" r:id="rId42"/>
-    <hyperlink ref="N48" r:id="rId43"/>
-    <hyperlink ref="N49" r:id="rId44"/>
-    <hyperlink ref="N50" r:id="rId45"/>
-    <hyperlink ref="N51" r:id="rId46"/>
-    <hyperlink ref="N52" r:id="rId47"/>
-    <hyperlink ref="N53" r:id="rId48"/>
-    <hyperlink ref="N55" r:id="rId49"/>
-    <hyperlink ref="N56" r:id="rId50"/>
-    <hyperlink ref="N57" r:id="rId51"/>
-    <hyperlink ref="N58" r:id="rId52"/>
-    <hyperlink ref="N59" r:id="rId53"/>
-    <hyperlink ref="N60" r:id="rId54"/>
-    <hyperlink ref="N61" r:id="rId55"/>
-    <hyperlink ref="N62" r:id="rId56"/>
-    <hyperlink ref="N63" r:id="rId57"/>
-    <hyperlink ref="N64" r:id="rId58"/>
-    <hyperlink ref="N65" r:id="rId59"/>
-    <hyperlink ref="N6" r:id="rId60"/>
-    <hyperlink ref="N4" r:id="rId61"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N6" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N4" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId62"/>
@@ -2728,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O76"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
@@ -3435,15 +3492,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-    <hyperlink ref="D30" r:id="rId3"/>
-    <hyperlink ref="B35" r:id="rId4"/>
-    <hyperlink ref="C47" r:id="rId5"/>
-    <hyperlink ref="C54" r:id="rId6"/>
-    <hyperlink ref="C61" r:id="rId7"/>
-    <hyperlink ref="C68" r:id="rId8"/>
-    <hyperlink ref="C75" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D30" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B35" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C47" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C54" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C61" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C68" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C75" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId10"/>
@@ -3451,7 +3508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3672,27 +3729,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1"/>
-    <hyperlink ref="N7" r:id="rId2"/>
-    <hyperlink ref="N9" r:id="rId3"/>
-    <hyperlink ref="N11" r:id="rId4"/>
-    <hyperlink ref="N12" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
-    <hyperlink ref="N10" r:id="rId7"/>
-    <hyperlink ref="N13" r:id="rId8"/>
-    <hyperlink ref="N14" r:id="rId9"/>
-    <hyperlink ref="N15" r:id="rId10"/>
-    <hyperlink ref="N16" r:id="rId11"/>
-    <hyperlink ref="N17" r:id="rId12"/>
-    <hyperlink ref="N18" r:id="rId13"/>
-    <hyperlink ref="N19" r:id="rId14"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="N7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="N11" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="N12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="N10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="N13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="N14" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="N15" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="N16" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="N17" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="N18" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="N19" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA846A95-680F-426D-B1C6-17D89462FF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B01D5-844F-4923-A49E-0D5DF3FCC9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,6 +1930,12 @@
       </c>
       <c r="B13" t="s">
         <v>69</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43848</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43849</v>
       </c>
       <c r="G13" s="8">
         <v>43587</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9B01D5-844F-4923-A49E-0D5DF3FCC9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D26EE-C686-44A3-B51E-4F2A43E04F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1937,6 +1937,9 @@
       <c r="D13" s="8">
         <v>43849</v>
       </c>
+      <c r="E13" s="8">
+        <v>43851</v>
+      </c>
       <c r="G13" s="8">
         <v>43587</v>
       </c>
@@ -1957,6 +1960,15 @@
       <c r="B14" t="s">
         <v>71</v>
       </c>
+      <c r="C14" s="8">
+        <v>43849</v>
+      </c>
+      <c r="D14" s="8">
+        <v>43854</v>
+      </c>
+      <c r="E14" s="8">
+        <v>43861</v>
+      </c>
       <c r="G14" s="8">
         <v>43588</v>
       </c>
@@ -1976,6 +1988,12 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>73</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43855</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43863</v>
       </c>
       <c r="G15" s="8">
         <v>43589</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D26EE-C686-44A3-B51E-4F2A43E04F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0DC46B-E6EB-46DF-BCAC-47B54DC63601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>yamanakakohji</author>
   </authors>
   <commentList>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
   <si>
     <t>AGC032</t>
     <phoneticPr fontId="1"/>
@@ -1147,6 +1147,10 @@
   </si>
   <si>
     <t>ABC069B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rust</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1598,39 +1602,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="10.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.375" customWidth="1"/>
-    <col min="12" max="13" width="11.625" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.75" customWidth="1"/>
+    <col min="11" max="11" width="10.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="2.375" customWidth="1"/>
+    <col min="15" max="16" width="11.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3">
         <v>1</v>
@@ -1641,26 +1648,35 @@
       <c r="E3">
         <v>3</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1676,20 +1692,23 @@
       <c r="E4" s="8">
         <v>43804</v>
       </c>
-      <c r="K4" s="8">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="N4" s="8">
         <v>43745</v>
       </c>
-      <c r="L4" s="8">
+      <c r="O4" s="8">
         <v>43748</v>
       </c>
-      <c r="M4" s="8">
+      <c r="P4" s="8">
         <v>43749</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1702,23 +1721,26 @@
       <c r="E5" s="8">
         <v>43806</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5">
         <v>20190329</v>
       </c>
-      <c r="K5" s="8">
+      <c r="N5" s="8">
         <v>43749</v>
       </c>
-      <c r="L5" s="8">
+      <c r="O5" s="8">
         <v>43750</v>
       </c>
-      <c r="M5" s="8">
+      <c r="P5" s="8">
         <v>43751</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1731,23 +1753,26 @@
       <c r="E6" s="8">
         <v>43811</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6">
         <v>20190330</v>
       </c>
-      <c r="K6" s="8">
+      <c r="N6" s="8">
         <v>43750</v>
       </c>
-      <c r="L6" s="8">
+      <c r="O6" s="8">
         <v>43751</v>
       </c>
-      <c r="M6" s="8">
+      <c r="P6" s="8">
         <v>43751</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1760,23 +1785,26 @@
       <c r="E7" s="8">
         <v>43813</v>
       </c>
-      <c r="G7" s="8">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8">
         <v>43575</v>
       </c>
-      <c r="K7" s="8">
+      <c r="N7" s="8">
         <v>43751</v>
       </c>
-      <c r="L7" s="8">
+      <c r="O7" s="8">
         <v>43752</v>
       </c>
-      <c r="M7" s="8">
+      <c r="P7" s="8">
         <v>43752</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1792,23 +1820,26 @@
       <c r="E8" s="8">
         <v>43819</v>
       </c>
-      <c r="G8" s="8">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8">
         <v>43575</v>
       </c>
-      <c r="K8" s="8">
+      <c r="N8" s="8">
         <v>43752</v>
       </c>
-      <c r="L8" s="8">
+      <c r="O8" s="8">
         <v>43752</v>
       </c>
-      <c r="M8" s="8">
+      <c r="P8" s="8">
         <v>43753</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>229</v>
       </c>
@@ -1821,23 +1852,26 @@
       <c r="E9" s="8">
         <v>43820</v>
       </c>
-      <c r="G9" s="8">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8">
         <v>43575</v>
       </c>
-      <c r="K9" s="8">
+      <c r="N9" s="8">
         <v>43752</v>
       </c>
-      <c r="L9" s="8">
+      <c r="O9" s="8">
         <v>43755</v>
       </c>
-      <c r="M9" s="8">
+      <c r="P9" s="8">
         <v>43755</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -1850,23 +1884,26 @@
       <c r="E10" s="8">
         <v>43825</v>
       </c>
-      <c r="G10" s="8">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8">
         <v>43578</v>
       </c>
-      <c r="K10" s="8">
+      <c r="N10" s="8">
         <v>43755</v>
       </c>
-      <c r="L10" s="8">
+      <c r="O10" s="8">
         <v>43755</v>
       </c>
-      <c r="M10" s="8">
+      <c r="P10" s="8">
         <v>43756</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -1879,23 +1916,26 @@
       <c r="E11" s="8">
         <v>43835</v>
       </c>
-      <c r="G11" s="8">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8">
         <v>43579</v>
       </c>
-      <c r="K11" s="8">
+      <c r="N11" s="8">
         <v>43755</v>
       </c>
-      <c r="L11" s="8">
+      <c r="O11" s="8">
         <v>43756</v>
       </c>
-      <c r="M11" s="8">
+      <c r="P11" s="8">
         <v>43758</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1908,23 +1948,26 @@
       <c r="E12" s="8">
         <v>43839</v>
       </c>
-      <c r="G12" s="8">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="8">
         <v>43583</v>
       </c>
-      <c r="K12" s="8">
+      <c r="N12" s="8">
         <v>43758</v>
       </c>
-      <c r="L12" s="8">
+      <c r="O12" s="8">
         <v>43758</v>
       </c>
-      <c r="M12" s="8">
+      <c r="P12" s="8">
         <v>43760</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1940,23 +1983,26 @@
       <c r="E13" s="8">
         <v>43851</v>
       </c>
-      <c r="G13" s="8">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="J13" s="8">
         <v>43587</v>
       </c>
-      <c r="K13" s="8">
+      <c r="N13" s="8">
         <v>43760</v>
       </c>
-      <c r="L13" s="8">
+      <c r="O13" s="8">
         <v>43762</v>
       </c>
-      <c r="M13" s="8">
+      <c r="P13" s="8">
         <v>43764</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1969,23 +2015,26 @@
       <c r="E14" s="8">
         <v>43861</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8">
         <v>43588</v>
       </c>
-      <c r="K14" s="8">
+      <c r="N14" s="8">
         <v>43763</v>
       </c>
-      <c r="L14" s="8">
+      <c r="O14" s="8">
         <v>43765</v>
       </c>
-      <c r="M14" s="8">
+      <c r="P14" s="8">
         <v>43770</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>73</v>
       </c>
@@ -1995,813 +2044,819 @@
       <c r="D15" s="8">
         <v>43863</v>
       </c>
-      <c r="G15" s="8">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="J15" s="8">
         <v>43589</v>
       </c>
-      <c r="K15" s="8">
+      <c r="N15" s="8">
         <v>43765</v>
       </c>
-      <c r="L15" s="8">
+      <c r="O15" s="8">
         <v>43767</v>
       </c>
-      <c r="M15" s="8">
+      <c r="P15" s="8">
         <v>43771</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="8">
+      <c r="C16" s="8">
+        <v>43867</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="J16" s="8">
         <v>43590</v>
       </c>
-      <c r="K16" s="8">
+      <c r="N16" s="8">
         <v>43765</v>
       </c>
-      <c r="L16" s="8">
+      <c r="O16" s="8">
         <v>43769</v>
       </c>
-      <c r="M16" s="8">
+      <c r="P16" s="8">
         <v>43772</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="8">
+      <c r="J17" s="8">
         <v>43590</v>
       </c>
-      <c r="K17" s="8">
+      <c r="N17" s="8">
         <v>43769</v>
       </c>
-      <c r="L17" s="8">
+      <c r="O17" s="8">
         <v>43772</v>
       </c>
-      <c r="M17" s="8">
+      <c r="P17" s="8">
         <v>43773</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="8">
+      <c r="J18" s="8">
         <v>43591</v>
       </c>
-      <c r="K18" s="8">
+      <c r="N18" s="8">
         <v>43773</v>
       </c>
-      <c r="L18" s="8">
+      <c r="O18" s="8">
         <v>43777</v>
       </c>
-      <c r="M18" s="8">
+      <c r="P18" s="8">
         <v>43779</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="8">
+      <c r="J19" s="8">
         <v>43591</v>
       </c>
-      <c r="K19" s="8">
+      <c r="N19" s="8">
         <v>43777</v>
       </c>
-      <c r="L19" s="8">
+      <c r="O19" s="8">
         <v>43788</v>
       </c>
-      <c r="M19" s="8">
+      <c r="P19" s="8">
         <v>43795</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="8">
+      <c r="J20" s="8">
         <v>43592</v>
       </c>
-      <c r="K20" s="8">
+      <c r="N20" s="8">
         <v>43778</v>
       </c>
-      <c r="L20" s="8">
+      <c r="O20" s="8">
         <v>43790</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>231</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="8">
+      <c r="J21" s="8">
         <v>43592</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="8">
+      <c r="J22" s="8">
         <v>43593</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="8">
+      <c r="J23" s="8">
         <v>43594</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="8">
+      <c r="J24" s="8">
         <v>43596</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="8">
+      <c r="J25" s="8">
         <v>43597</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="8">
+      <c r="J26" s="8">
         <v>43599</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="8">
+      <c r="J27" s="8">
         <v>43602</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="8">
+      <c r="J28" s="8">
         <v>43608</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="8">
+      <c r="J29" s="8">
         <v>43610</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="8">
+      <c r="J30" s="8">
         <v>43613</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="8">
+      <c r="J31" s="8">
         <v>43618</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="8">
+      <c r="J32" s="8">
         <v>43624</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="8">
+      <c r="J33" s="8">
         <v>43625</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="8">
+      <c r="J34" s="8">
         <v>43631</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="8">
+      <c r="J35" s="8">
         <v>43632</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="8">
+      <c r="J36" s="8">
         <v>43636</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="8">
+      <c r="J37" s="8">
         <v>43640</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="8">
+      <c r="J38" s="8">
         <v>43645</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="8">
+      <c r="J39" s="8">
         <v>43646</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="8">
+      <c r="J40" s="8">
         <v>43646</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="8">
+      <c r="J41" s="8">
         <v>43649</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="8">
+      <c r="J42" s="8">
         <v>43650</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="8">
+      <c r="J43" s="8">
         <v>43652</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>174</v>
       </c>
       <c r="B44" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="8">
+      <c r="J44" s="8">
         <v>43658</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>177</v>
       </c>
-      <c r="G45" s="8">
+      <c r="J45" s="8">
         <v>43660</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="8">
+      <c r="J46" s="8">
         <v>43661</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="8">
+      <c r="J47" s="8">
         <v>43666</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="8">
+      <c r="J48" s="8">
         <v>43667</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>185</v>
       </c>
       <c r="B49" t="s">
         <v>191</v>
       </c>
-      <c r="G49" s="8">
+      <c r="J49" s="8">
         <v>43672</v>
       </c>
-      <c r="H49" s="8">
+      <c r="K49" s="8">
         <v>43676</v>
       </c>
-      <c r="I49" s="8">
+      <c r="L49" s="8">
         <v>43679</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>189</v>
       </c>
-      <c r="G50" s="8">
+      <c r="J50" s="8">
         <v>43673</v>
       </c>
-      <c r="H50" s="8">
+      <c r="K50" s="8">
         <v>43677</v>
       </c>
-      <c r="I50" s="8">
+      <c r="L50" s="8">
         <v>43680</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="G51" s="8">
+      <c r="J51" s="8">
         <v>43678</v>
       </c>
-      <c r="H51" s="8">
+      <c r="K51" s="8">
         <v>43681</v>
       </c>
-      <c r="I51" s="8">
+      <c r="L51" s="8">
         <v>43687</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="8">
+      <c r="J52" s="8">
         <v>43685</v>
       </c>
-      <c r="H52" s="8">
+      <c r="K52" s="8">
         <v>43688</v>
       </c>
-      <c r="I52" s="8">
+      <c r="L52" s="8">
         <v>43691</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="8">
+      <c r="J53" s="8">
         <v>43690</v>
       </c>
-      <c r="H53" s="8">
+      <c r="K53" s="8">
         <v>43692</v>
       </c>
-      <c r="I53" s="8">
+      <c r="L53" s="8">
         <v>43699</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>197</v>
       </c>
       <c r="B55" t="s">
         <v>220</v>
       </c>
-      <c r="G55" s="8">
+      <c r="J55" s="8">
         <v>43695</v>
       </c>
-      <c r="H55" s="8">
+      <c r="K55" s="8">
         <v>43701</v>
       </c>
-      <c r="I55" s="8">
+      <c r="L55" s="8">
         <v>43709</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>205</v>
       </c>
-      <c r="G56" s="8">
+      <c r="J56" s="8">
         <v>43707</v>
       </c>
-      <c r="H56" s="8">
+      <c r="K56" s="8">
         <v>43711</v>
       </c>
-      <c r="I56" s="8">
+      <c r="L56" s="8">
         <v>43714</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>198</v>
       </c>
       <c r="B57" t="s">
         <v>208</v>
       </c>
-      <c r="G57" s="8">
+      <c r="J57" s="8">
         <v>43713</v>
       </c>
-      <c r="H57" s="8">
+      <c r="K57" s="8">
         <v>43715</v>
       </c>
-      <c r="I57" s="8">
+      <c r="L57" s="8">
         <v>43716</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>199</v>
       </c>
       <c r="B58" t="s">
         <v>210</v>
       </c>
-      <c r="G58" s="8">
+      <c r="J58" s="8">
         <v>43715</v>
       </c>
-      <c r="H58" s="8">
+      <c r="K58" s="8">
         <v>43718</v>
       </c>
-      <c r="I58" s="8">
+      <c r="L58" s="8">
         <v>43721</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>200</v>
       </c>
       <c r="B59" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="8">
+      <c r="J59" s="8">
         <v>43721</v>
       </c>
-      <c r="H59" s="8">
+      <c r="K59" s="8">
         <v>43721</v>
       </c>
-      <c r="I59" s="8">
+      <c r="L59" s="8">
         <v>43722</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>214</v>
       </c>
-      <c r="G60" s="8">
+      <c r="J60" s="8">
         <v>43722</v>
       </c>
-      <c r="H60" s="8">
+      <c r="K60" s="8">
         <v>43723</v>
       </c>
-      <c r="I60" s="8">
+      <c r="L60" s="8">
         <v>43724</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="Q60" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>219</v>
       </c>
-      <c r="G61" s="8">
+      <c r="J61" s="8">
         <v>43723</v>
       </c>
-      <c r="H61" s="8">
+      <c r="K61" s="8">
         <v>43724</v>
       </c>
-      <c r="I61" s="8">
+      <c r="L61" s="8">
         <v>43725</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="8">
+      <c r="J62" s="8">
         <v>43724</v>
       </c>
-      <c r="H62" s="8">
+      <c r="K62" s="8">
         <v>43728</v>
       </c>
-      <c r="I62" s="8">
+      <c r="L62" s="8">
         <v>43729</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>202</v>
       </c>
       <c r="B63" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="8">
+      <c r="J63" s="8">
         <v>43729</v>
       </c>
-      <c r="H63" s="8">
+      <c r="K63" s="8">
         <v>43729</v>
       </c>
-      <c r="I63" s="8">
+      <c r="L63" s="8">
         <v>43733</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="Q63" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>223</v>
       </c>
-      <c r="G64" s="8">
+      <c r="J64" s="8">
         <v>43731</v>
       </c>
-      <c r="H64" s="8">
+      <c r="K64" s="8">
         <v>43734</v>
       </c>
-      <c r="I64" s="8">
+      <c r="L64" s="8">
         <v>43741</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="Q64" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>203</v>
       </c>
       <c r="B65" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="8">
+      <c r="J65" s="8">
         <v>43737</v>
       </c>
-      <c r="H65" s="8">
+      <c r="K65" s="8">
         <v>43742</v>
       </c>
-      <c r="I65" s="8">
+      <c r="L65" s="8">
         <v>43748</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="Q65" s="3" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="N30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="N31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="N36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="N37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="N39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="N41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="N43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="N58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="N60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="N61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="N62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="N63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="N64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="N65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="N6" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="N4" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Q30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Q34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Q40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Q42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Q44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Q46" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Q48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q52" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q53" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q57" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q59" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q61" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q6" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q4" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId62"/>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0DC46B-E6EB-46DF-BCAC-47B54DC63601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A298C1A-910B-4D9C-8220-C3F542C0E39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1350" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2044,6 +2044,9 @@
       <c r="D15" s="8">
         <v>43863</v>
       </c>
+      <c r="E15" s="8">
+        <v>43869</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="J15" s="8">
@@ -2069,6 +2072,12 @@
       <c r="C16" s="8">
         <v>43867</v>
       </c>
+      <c r="D16" s="8">
+        <v>43875</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43882</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="J16" s="8">
         <v>43590</v>
@@ -2090,6 +2099,15 @@
       <c r="B17" t="s">
         <v>77</v>
       </c>
+      <c r="C17" s="8">
+        <v>43877</v>
+      </c>
+      <c r="D17" s="8">
+        <v>43889</v>
+      </c>
+      <c r="E17" s="8">
+        <v>43896</v>
+      </c>
       <c r="J17" s="8">
         <v>43590</v>
       </c>
@@ -2110,6 +2128,12 @@
       <c r="B18" t="s">
         <v>79</v>
       </c>
+      <c r="C18" s="8">
+        <v>43891</v>
+      </c>
+      <c r="D18" s="8">
+        <v>43896</v>
+      </c>
       <c r="J18" s="8">
         <v>43591</v>
       </c>
@@ -2129,6 +2153,9 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>81</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43897</v>
       </c>
       <c r="J19" s="8">
         <v>43591</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A298C1A-910B-4D9C-8220-C3F542C0E39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B34A34-1577-4B4F-BBD4-8CC2A11EAA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1350" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2134,6 +2134,9 @@
       <c r="D18" s="8">
         <v>43896</v>
       </c>
+      <c r="E18" s="8">
+        <v>43898</v>
+      </c>
       <c r="J18" s="8">
         <v>43591</v>
       </c>
@@ -2157,6 +2160,12 @@
       <c r="C19" s="8">
         <v>43897</v>
       </c>
+      <c r="D19" s="8">
+        <v>43898</v>
+      </c>
+      <c r="E19" s="8">
+        <v>43905</v>
+      </c>
       <c r="J19" s="8">
         <v>43591</v>
       </c>
@@ -2179,6 +2188,9 @@
       </c>
       <c r="B20" t="s">
         <v>90</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43903</v>
       </c>
       <c r="J20" s="8">
         <v>43592</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B34A34-1577-4B4F-BBD4-8CC2A11EAA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11328DE7-67F9-451C-9384-70592C2FA962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2192,6 +2192,12 @@
       <c r="C20" s="8">
         <v>43903</v>
       </c>
+      <c r="D20" s="8">
+        <v>43908</v>
+      </c>
+      <c r="E20" s="8">
+        <v>43912</v>
+      </c>
       <c r="J20" s="8">
         <v>43592</v>
       </c>
@@ -2211,6 +2217,12 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>85</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43910</v>
+      </c>
+      <c r="D21" s="8">
+        <v>43915</v>
       </c>
       <c r="J21" s="8">
         <v>43592</v>
@@ -2898,7 +2910,8 @@
     <hyperlink ref="Q4" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <legacyDrawing r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11328DE7-67F9-451C-9384-70592C2FA962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210A790-EC69-4809-A777-DFD2CCA57B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2224,6 +2224,9 @@
       <c r="D21" s="8">
         <v>43915</v>
       </c>
+      <c r="E21" s="8">
+        <v>43918</v>
+      </c>
       <c r="J21" s="8">
         <v>43592</v>
       </c>
@@ -2235,6 +2238,15 @@
       <c r="B22" t="s">
         <v>87</v>
       </c>
+      <c r="C22" s="8">
+        <v>43917</v>
+      </c>
+      <c r="D22" s="8">
+        <v>43919</v>
+      </c>
+      <c r="E22" s="8">
+        <v>43921</v>
+      </c>
       <c r="J22" s="8">
         <v>43593</v>
       </c>
@@ -2246,6 +2258,15 @@
       <c r="B23" t="s">
         <v>89</v>
       </c>
+      <c r="C23" s="8">
+        <v>43919</v>
+      </c>
+      <c r="D23" s="8">
+        <v>43923</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43925</v>
+      </c>
       <c r="J23" s="8">
         <v>43594</v>
       </c>
@@ -2260,6 +2281,15 @@
       <c r="B24" t="s">
         <v>94</v>
       </c>
+      <c r="C24" s="8">
+        <v>43924</v>
+      </c>
+      <c r="D24" s="8">
+        <v>43926</v>
+      </c>
+      <c r="E24" s="8">
+        <v>43932</v>
+      </c>
       <c r="J24" s="8">
         <v>43596</v>
       </c>
@@ -2271,6 +2301,15 @@
       <c r="B25" t="s">
         <v>96</v>
       </c>
+      <c r="C25" s="8">
+        <v>43931</v>
+      </c>
+      <c r="D25" s="8">
+        <v>43933</v>
+      </c>
+      <c r="E25" s="8">
+        <v>43934</v>
+      </c>
       <c r="J25" s="8">
         <v>43597</v>
       </c>
@@ -2282,6 +2321,15 @@
       <c r="B26" t="s">
         <v>98</v>
       </c>
+      <c r="C26" s="8">
+        <v>43933</v>
+      </c>
+      <c r="D26" s="8">
+        <v>43934</v>
+      </c>
+      <c r="E26" s="8">
+        <v>43937</v>
+      </c>
       <c r="J26" s="8">
         <v>43599</v>
       </c>
@@ -2293,6 +2341,15 @@
       <c r="B27" t="s">
         <v>99</v>
       </c>
+      <c r="C27" s="8">
+        <v>43935</v>
+      </c>
+      <c r="D27" s="8">
+        <v>43938</v>
+      </c>
+      <c r="E27" s="8">
+        <v>43940</v>
+      </c>
       <c r="J27" s="8">
         <v>43602</v>
       </c>
@@ -2306,6 +2363,9 @@
       </c>
       <c r="B28" t="s">
         <v>117</v>
+      </c>
+      <c r="C28" s="8">
+        <v>43939</v>
       </c>
       <c r="J28" s="8">
         <v>43608</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210A790-EC69-4809-A777-DFD2CCA57B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738FDC1-F357-4B9F-9A6A-480BBD902621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,6 +2367,12 @@
       <c r="C28" s="8">
         <v>43939</v>
       </c>
+      <c r="D28" s="8">
+        <v>43941</v>
+      </c>
+      <c r="E28" s="8">
+        <v>43944</v>
+      </c>
       <c r="J28" s="8">
         <v>43608</v>
       </c>
@@ -2377,6 +2383,12 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>118</v>
+      </c>
+      <c r="C29" s="8">
+        <v>43942</v>
+      </c>
+      <c r="D29" s="8">
+        <v>43945</v>
       </c>
       <c r="J29" s="8">
         <v>43610</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2738FDC1-F357-4B9F-9A6A-480BBD902621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA60C1-CEC4-44B6-BDC3-31F8EABCE0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2390,6 +2390,9 @@
       <c r="D29" s="8">
         <v>43945</v>
       </c>
+      <c r="E29" s="8">
+        <v>43950</v>
+      </c>
       <c r="J29" s="8">
         <v>43610</v>
       </c>
@@ -2401,6 +2404,12 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
+      <c r="C30" s="8">
+        <v>43949</v>
+      </c>
+      <c r="D30" s="8">
+        <v>43951</v>
+      </c>
       <c r="J30" s="8">
         <v>43613</v>
       </c>
@@ -2411,6 +2420,9 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>120</v>
+      </c>
+      <c r="C31" s="8">
+        <v>43951</v>
       </c>
       <c r="J31" s="8">
         <v>43618</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA60C1-CEC4-44B6-BDC3-31F8EABCE0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C661F2C2-B753-434C-8D76-B702F6CB2E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2410,6 +2410,9 @@
       <c r="D30" s="8">
         <v>43951</v>
       </c>
+      <c r="E30" s="8">
+        <v>43954</v>
+      </c>
       <c r="J30" s="8">
         <v>43613</v>
       </c>
@@ -2424,6 +2427,9 @@
       <c r="C31" s="8">
         <v>43951</v>
       </c>
+      <c r="D31" s="8">
+        <v>43954</v>
+      </c>
       <c r="J31" s="8">
         <v>43618</v>
       </c>
@@ -2434,6 +2440,9 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>121</v>
+      </c>
+      <c r="C32" s="8">
+        <v>43958</v>
       </c>
       <c r="J32" s="8">
         <v>43624</v>

--- a/atcoder/AtCoder回答実績.xlsx
+++ b/atcoder/AtCoder回答実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\yamanaka\cppprog\atcoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C661F2C2-B753-434C-8D76-B702F6CB2E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E60B19-2ECD-4F74-A7B6-C7E87DA9A02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BeginnersSelection" sheetId="1" r:id="rId1"/>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2430,6 +2430,9 @@
       <c r="D31" s="8">
         <v>43954</v>
       </c>
+      <c r="E31" s="8">
+        <v>43959</v>
+      </c>
       <c r="J31" s="8">
         <v>43618</v>
       </c>
@@ -2444,6 +2447,12 @@
       <c r="C32" s="8">
         <v>43958</v>
       </c>
+      <c r="D32" s="8">
+        <v>43962</v>
+      </c>
+      <c r="E32" s="8">
+        <v>43966</v>
+      </c>
       <c r="J32" s="8">
         <v>43624</v>
       </c>
@@ -2457,6 +2466,9 @@
       </c>
       <c r="B33" t="s">
         <v>152</v>
+      </c>
+      <c r="C33" s="8">
+        <v>43965</v>
       </c>
       <c r="J33" s="8">
         <v>43625</v>
